--- a/430600/服务器配置信息.xlsx
+++ b/430600/服务器配置信息.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378D60A2-7E7E-8F42-8715-2673ADB107F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AEF495-B700-6641-89BE-A394690B92BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="460" windowWidth="22260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys/Sunway4303(管理员)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账户/密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +139,14 @@
   </si>
   <si>
     <t>ftp_bdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdcFTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys/sys(管理员)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,9 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
@@ -638,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.25" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.25" customHeight="1">
@@ -652,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.25" customHeight="1">
@@ -690,21 +692,21 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.25" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.25" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.25" customHeight="1">
@@ -716,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.25" customHeight="1">
@@ -754,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20.25" customHeight="1">
@@ -762,12 +764,12 @@
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.25" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="11"/>
     </row>
@@ -784,15 +786,15 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20.25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="8">
-        <v>1234567890</v>
+      <c r="B23" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20.25" customHeight="1">
@@ -800,23 +802,23 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
